--- a/biology/Médecine/John_Anthony_Hardy/John_Anthony_Hardy.xlsx
+++ b/biology/Médecine/John_Anthony_Hardy/John_Anthony_Hardy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Anthony Hardy (né le 9 novembre 1954) est un généticien et biologiste moléculaire au Reta Lila Weston Institute of Neurological Studies (en) de l'University College de Londres avec ses recherches centrées sur les  troubles neurologiques[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Anthony Hardy (né le 9 novembre 1954) est un généticien et biologiste moléculaire au Reta Lila Weston Institute of Neurological Studies (en) de l'University College de Londres avec ses recherches centrées sur les  troubles neurologiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hardy obtient un Bachelor of Science en biochimie à l'université de Leeds en 1976 et un Ph.D. en neurochimie au Imperial College London en 1981 sous la supervision de Harry Bradford avec un travail intitulé On the Release of Amino Acod Neurotransmitters from Mammalian Synaptosomes pour des recherches sur la dopamine et des  acides aminés en neuropharmacologie.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son PhD, Hardy est chercheur postdoctoral au Medical Research Council dans l'unité de Neuroendocrinologie  de l'université de Newcastle upon Tyne, où il obtient en 1982 un poste de Honorary Lecturer en biochimie.
 En 1983/1984 Hardy travaille comme enseignant en  neuropathologie à la Brain Bank de l'université d'Umeå, en Suède où il commence ses travaux sur la maladie d'Alzheimer.
@@ -578,27 +594,29 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 – Prix Brain[5],[6]
-2017 – Docteur honoris causa, Université de Leeds[7]
-2015 – Breakthrough Prize in Life Sciences[8]
-2015 The Robert A. Pritzker Prize for his leadership in Parkinson’s genetics research[9],[10]
-2015 – Membre de l'Organisation européenne de biologie moléculaire (EMBO)[11],[12]
-2014 – Médaille Thudichum (en) de la  Biochemical Society (en)[6]
-2014 – Prix Dan David[13]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2018 – Prix Brain,
+2017 – Docteur honoris causa, Université de Leeds
+2015 – Breakthrough Prize in Life Sciences
+2015 The Robert A. Pritzker Prize for his leadership in Parkinson’s genetics research,
+2015 – Membre de l'Organisation européenne de biologie moléculaire (EMBO),
+2014 – Médaille Thudichum (en) de la  Biochemical Society (en)
+2014 – Prix Dan David
 2011 – Fellow de l'Institute of Biology (en)
 2010 – Docteur honoris causa, Université de Newcastle upon Tyne
-2009 – Fellow de la Royal Society[14]
-2008 – Docteur honoraire, Université d'Umeå[15]
-2008 – Fellow de l'Academy of Medical Sciences (en) (FMedSci)[16],[15]
-2008 – Prix international Anne Marie Oprecht de recherche sur la maladie d'Alzheimer[17],[15]
-2002 – Prix Kaul[15]
-1995 – Prix MetLife[15]
-1995 – Allied Signal Prize for Research into Aging[15]
-1993 – Prix Potamkin (en) de l'American Academy of Neurology (en)  de recherche sur la maladie d'Alzheimer[15]
-1992 – Prix IPSEN Prize de recherche sur la maladie d'Alzheimer[15]
-1991 – Prix Peter Debje, Université de Limburg[15]</t>
+2009 – Fellow de la Royal Society
+2008 – Docteur honoraire, Université d'Umeå
+2008 – Fellow de l'Academy of Medical Sciences (en) (FMedSci),
+2008 – Prix international Anne Marie Oprecht de recherche sur la maladie d'Alzheimer,
+2002 – Prix Kaul
+1995 – Prix MetLife
+1995 – Allied Signal Prize for Research into Aging
+1993 – Prix Potamkin (en) de l'American Academy of Neurology (en)  de recherche sur la maladie d'Alzheimer
+1992 – Prix IPSEN Prize de recherche sur la maladie d'Alzheimer
+1991 – Prix Peter Debje, Université de Limburg</t>
         </is>
       </c>
     </row>
